--- a/src/sheets/output.xlsx
+++ b/src/sheets/output.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="AKATSUKI" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="『𝚗𝚎𝚔𝚘』𝓵𝓸𝓊𝓃𝑔𝓮" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>UserName</t>
   </si>
@@ -28,130 +28,166 @@
     <t>Points</t>
   </si>
   <si>
-    <t>MIN@Ayaka</t>
-  </si>
-  <si>
-    <t>24605.07</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>25227.26</t>
-  </si>
-  <si>
-    <t>PRATIK</t>
-  </si>
-  <si>
-    <t>27319.73</t>
-  </si>
-  <si>
-    <t>dominatorsg</t>
-  </si>
-  <si>
-    <t>24059.77</t>
-  </si>
-  <si>
-    <t>KÎNG</t>
-  </si>
-  <si>
-    <t>22993.43</t>
-  </si>
-  <si>
-    <t>Zeon</t>
-  </si>
-  <si>
-    <t>24113.59</t>
-  </si>
-  <si>
-    <t>ΛcroNYMッ</t>
-  </si>
-  <si>
-    <t>20072.41</t>
-  </si>
-  <si>
-    <t>NOT [MØD]</t>
-  </si>
-  <si>
-    <t>22518.45</t>
-  </si>
-  <si>
-    <t>Tasni</t>
-  </si>
-  <si>
-    <t>19954.59</t>
-  </si>
-  <si>
-    <t>` Tejas</t>
-  </si>
-  <si>
-    <t>22150.69</t>
-  </si>
-  <si>
-    <t>THE彡Rudra彡2004</t>
-  </si>
-  <si>
-    <t>22582.14</t>
-  </si>
-  <si>
-    <t>Prateek</t>
-  </si>
-  <si>
-    <t>23215.91</t>
-  </si>
-  <si>
-    <t>Parth</t>
-  </si>
-  <si>
-    <t>19186.34</t>
-  </si>
-  <si>
-    <t>RAMA !!</t>
-  </si>
-  <si>
-    <t>21079.65</t>
-  </si>
-  <si>
-    <t>Akshad</t>
-  </si>
-  <si>
-    <t>18991.00</t>
-  </si>
-  <si>
-    <t>yuqi</t>
-  </si>
-  <si>
-    <t>19215.89</t>
-  </si>
-  <si>
-    <t>anygrapher✨</t>
-  </si>
-  <si>
-    <t>20464.67</t>
-  </si>
-  <si>
-    <t>जय श्री राम 🚩</t>
-  </si>
-  <si>
-    <t>17409.17</t>
-  </si>
-  <si>
-    <t>Tyco</t>
-  </si>
-  <si>
-    <t>19165.90</t>
-  </si>
-  <si>
-    <t>🍄Onibi🫧</t>
-  </si>
-  <si>
-    <t>18067.95</t>
-  </si>
-  <si>
-    <t>Devvv</t>
-  </si>
-  <si>
-    <t>15784.00</t>
+    <t>neneねね|ping me if i dont reply</t>
+  </si>
+  <si>
+    <t>23350.78</t>
+  </si>
+  <si>
+    <t>Jio Melvinger</t>
+  </si>
+  <si>
+    <t>22388.86</t>
+  </si>
+  <si>
+    <t>DarkSovereign</t>
+  </si>
+  <si>
+    <t>24064.49</t>
+  </si>
+  <si>
+    <t>Beast258</t>
+  </si>
+  <si>
+    <t>21052.54</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>22179.04</t>
+  </si>
+  <si>
+    <t>vqru'</t>
+  </si>
+  <si>
+    <t>21695.57</t>
+  </si>
+  <si>
+    <t>N O X</t>
+  </si>
+  <si>
+    <t>22188.68</t>
+  </si>
+  <si>
+    <t>Hope Salvatore Mikaelson</t>
+  </si>
+  <si>
+    <t>21382.95</t>
+  </si>
+  <si>
+    <t>ItzSealMe</t>
+  </si>
+  <si>
+    <t>26066.17</t>
+  </si>
+  <si>
+    <t>akshuu</t>
+  </si>
+  <si>
+    <t>19210.40</t>
+  </si>
+  <si>
+    <t>GRIM || REAPER ◥▶_◀◤</t>
+  </si>
+  <si>
+    <t>20720.27</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>18624.91</t>
+  </si>
+  <si>
+    <t>zaam?</t>
+  </si>
+  <si>
+    <t>20950.38</t>
+  </si>
+  <si>
+    <t>Pogba</t>
+  </si>
+  <si>
+    <t>23862.02</t>
+  </si>
+  <si>
+    <t>Foggyyy</t>
+  </si>
+  <si>
+    <t>19059.02</t>
+  </si>
+  <si>
+    <t>DAZAI</t>
+  </si>
+  <si>
+    <t>18525.04</t>
+  </si>
+  <si>
+    <t>꙳͙ʙᴇʀʟɪɴ𐂅縉</t>
+  </si>
+  <si>
+    <t>17924.35</t>
+  </si>
+  <si>
+    <t>ChaChii</t>
+  </si>
+  <si>
+    <t>19067.51</t>
+  </si>
+  <si>
+    <t>Møøn</t>
+  </si>
+  <si>
+    <t>15259.65</t>
+  </si>
+  <si>
+    <t>Buying My Wl (shya1308)</t>
+  </si>
+  <si>
+    <t>17584.70</t>
+  </si>
+  <si>
+    <t>akito</t>
+  </si>
+  <si>
+    <t>19826.11</t>
+  </si>
+  <si>
+    <t>@Yaa_its(itachi)🔫🥱</t>
+  </si>
+  <si>
+    <t>12860.15</t>
+  </si>
+  <si>
+    <t>Kaz</t>
+  </si>
+  <si>
+    <t>18727.00</t>
+  </si>
+  <si>
+    <t>Yoh</t>
+  </si>
+  <si>
+    <t>14813.18</t>
+  </si>
+  <si>
+    <t>machunkita_</t>
+  </si>
+  <si>
+    <t>11479.92</t>
+  </si>
+  <si>
+    <t>sathwik</t>
+  </si>
+  <si>
+    <t>14121.94</t>
+  </si>
+  <si>
+    <t>ٴٴٴ</t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
 </sst>
 </file>
@@ -528,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E28"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -556,16 +592,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1353279</v>
+        <v>3432565</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,16 +609,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1362272</v>
+        <v>3156829</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,16 +626,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1338667</v>
+        <v>3248706</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -607,16 +643,16 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>1058630</v>
+        <v>3494721</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,16 +660,16 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1011711</v>
+        <v>3127245</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,16 +677,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>940430</v>
+        <v>2842120</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -658,16 +694,16 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>983548</v>
+        <v>2596076</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,16 +711,16 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>990812</v>
+        <v>2630103</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,16 +728,16 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>917911</v>
+        <v>1850698</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,16 +745,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>775274</v>
+        <v>2420511</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,16 +762,16 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>632300</v>
+        <v>2486432</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,16 +779,16 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>533966</v>
+        <v>2551613</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,16 +796,16 @@
         <v>29</v>
       </c>
       <c r="B14">
-        <v>844199</v>
+        <v>1948385</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,16 +813,16 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>716708</v>
+        <v>1240825</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,16 +830,16 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>816613</v>
+        <v>2039315</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,16 +847,16 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>518829</v>
+        <v>1889554</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -828,16 +864,16 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>61394</v>
+        <v>1702813</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,16 +881,16 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>609321</v>
+        <v>1296591</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -862,16 +898,16 @@
         <v>41</v>
       </c>
       <c r="B20">
-        <v>191659</v>
+        <v>1312330</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,16 +915,16 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>379427</v>
+        <v>1354022</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,15 +932,117 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>47352</v>
+        <v>535305</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
       </c>
       <c r="E22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>938791</v>
+      </c>
+      <c r="C23">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>37454</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>844351</v>
+      </c>
+      <c r="C25">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>815074</v>
+      </c>
+      <c r="C26">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>706097</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28">
         <v>2</v>
       </c>
     </row>
